--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Desktop\Net_Anom_DetectionClassification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Net_Anom_DetectionClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A27C9B7-0A66-4F42-81B7-3E8CB17A1A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA8F938-1A84-48FF-A458-FDB1F9C20F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{F22E950C-45F9-4E3E-AFCD-BBB8A1550B49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F22E950C-45F9-4E3E-AFCD-BBB8A1550B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>OS Name</t>
   </si>
@@ -67,6 +67,60 @@
   </si>
   <si>
     <t>GPU</t>
+  </si>
+  <si>
+    <t>Open an Anaconda terminal</t>
+  </si>
+  <si>
+    <t>Conda  Activate tf0</t>
+  </si>
+  <si>
+    <t>It was not bunduled in the VENV</t>
+  </si>
+  <si>
+    <t>pip install scikeras</t>
+  </si>
+  <si>
+    <t>python CNNBiLSTM_Classifier_NSLKDD_Gridsearch.py</t>
+  </si>
+  <si>
+    <t>for grid serch hyperparameter optimisation (NSLKDD)</t>
+  </si>
+  <si>
+    <t>for grid serch hyperparameter optimisation (UNW_NB15)</t>
+  </si>
+  <si>
+    <t>python CNNBiLSTM_Classifier_UNW_NB15_Gridsearch.py</t>
+  </si>
+  <si>
+    <t>to train model and run evaluation NSLKDD</t>
+  </si>
+  <si>
+    <t>Python CNNBiLSTM_Classifier_NSLKDD.py</t>
+  </si>
+  <si>
+    <t>to train model and run evaluation UNW_NB1</t>
+  </si>
+  <si>
+    <t>Python CNNBiLSTM_Classifier_UNW_NB15.py</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t>Propmt changes to tf0</t>
+  </si>
+  <si>
+    <t>Browse to project folder</t>
+  </si>
+  <si>
+    <t>Code runs with Iterations and outputs  best combination of hyperparameters</t>
+  </si>
+  <si>
+    <t>Code runs outputs the model metrics</t>
   </si>
 </sst>
 </file>
@@ -82,15 +136,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +158,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,73 +495,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0CB69-F753-4621-9999-BFCDDE9F68AD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A16" sqref="A16:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
